--- a/1min_interval_geiger.xlsx
+++ b/1min_interval_geiger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Intermediate Lab\Intermediate-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E09599-391C-4476-AF3A-E931D6B6D1A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0E82B3-FC8E-41AC-A2F2-9A0CDE8C6D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{BA67DCBB-B91F-4811-9570-49565610D75D}"/>
   </bookViews>
@@ -377,107 +377,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220DED48-6505-4C63-B884-2A9D54C2EF7D}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -487,76 +487,201 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>15</v>
       </c>
     </row>
